--- a/[PIP team]_Plan_Task_Report.xlsx
+++ b/[PIP team]_Plan_Task_Report.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="9540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="5" r:id="rId1"/>
     <sheet name="5-Mar" sheetId="1" r:id="rId2"/>
     <sheet name="6-Mar" sheetId="8" r:id="rId3"/>
     <sheet name="7-Mar" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="10-Mar" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -495,7 +495,7 @@
   <si>
     <t>Đang chờ setup Identity để hoàn thành:
 - ApproveRequest(ClaimRequestBus)
-- CRU(ClaimRequestBus)</t>
+- CRU(ClaimRequestBus).</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2171,7 +2171,7 @@
         <v>145</v>
       </c>
       <c r="G49" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2194,7 +2194,7 @@
         <v>147</v>
       </c>
       <c r="G50" s="46">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2240,7 +2240,7 @@
         <v>148</v>
       </c>
       <c r="G52" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2263,7 +2263,7 @@
         <v>149</v>
       </c>
       <c r="G53" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2286,7 +2286,7 @@
         <v>150</v>
       </c>
       <c r="G54" s="46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2332,7 +2332,7 @@
         <v>150</v>
       </c>
       <c r="G56" s="46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2401,7 +2401,7 @@
         <v>76</v>
       </c>
       <c r="G59" s="46">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3651,7 +3651,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
